--- a/excel/t-剧情表.xlsx
+++ b/excel/t-剧情表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work0\excelToCj\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t_plot_ground" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,8 @@
     <sheet name="t_timeline" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">t_newplayer!$G$1:$G$126</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">t_plot!$A$2:$AO$257</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">t_newplayer!$G$1:$G$126</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2603,18 +2608,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2711,150 +2712,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2863,37 +2734,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2911,174 +2782,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3086,249 +2801,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3522,7 +2998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3541,7 +3017,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3598,13 +3074,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3617,58 +3093,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3686,11 +3125,424 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3977,23 +3829,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A129" sqref="$A129:$XFD129"/>
+      <selection pane="bottomRight" activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
@@ -4010,12 +3861,12 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4053,14 +3904,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4101,7 +3952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="147.75" customHeight="1" spans="1:13">
+    <row r="5" spans="1:15" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -4138,7 +3989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -4171,7 +4022,7 @@
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -4204,7 +4055,7 @@
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -4237,7 +4088,7 @@
       <c r="N8" s="83"/>
       <c r="O8" s="83"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -4270,7 +4121,7 @@
       <c r="N9" s="83"/>
       <c r="O9" s="83"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -4303,7 +4154,7 @@
       <c r="N10" s="52"/>
       <c r="O10" s="52"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -4336,7 +4187,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -4369,7 +4220,7 @@
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -4402,7 +4253,7 @@
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -4435,7 +4286,7 @@
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -4468,7 +4319,7 @@
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -4494,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -4520,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -4546,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -4572,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -4598,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -4624,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -4650,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -4676,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -4702,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -4728,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -4754,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -4780,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>23</v>
       </c>
@@ -4806,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -4832,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -4858,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -4884,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -4910,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>28</v>
       </c>
@@ -4936,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -4962,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -4988,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -5014,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>32</v>
       </c>
@@ -5040,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5066,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5092,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5118,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -5144,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -5170,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -5196,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -5222,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -5248,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -5274,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -5300,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -5326,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -5352,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -5378,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -5404,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -5430,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -5456,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -5482,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -5508,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -5534,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -5560,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -5586,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -5612,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -5638,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -5664,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -5690,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -5716,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -5742,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -5768,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -5794,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -5820,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -5846,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -5872,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -5898,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -5924,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -5950,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -5976,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -6002,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -6028,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -6054,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -6080,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -6106,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -6132,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -6156,7 +6007,7 @@
       </c>
       <c r="L80" s="52"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -6180,7 +6031,7 @@
       </c>
       <c r="L81" s="52"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -6204,7 +6055,7 @@
       </c>
       <c r="L82" s="52"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -6228,7 +6079,7 @@
       </c>
       <c r="L83" s="52"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -6252,7 +6103,7 @@
       </c>
       <c r="L84" s="52"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -6276,7 +6127,7 @@
       </c>
       <c r="L85" s="52"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -6300,7 +6151,7 @@
       </c>
       <c r="L86" s="52"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -6324,7 +6175,7 @@
       </c>
       <c r="L87" s="52"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -6348,7 +6199,7 @@
       </c>
       <c r="L88" s="52"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -6372,7 +6223,7 @@
       </c>
       <c r="L89" s="52"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -6396,7 +6247,7 @@
       </c>
       <c r="L90" s="52"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -6420,7 +6271,7 @@
       </c>
       <c r="L91" s="52"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -6444,7 +6295,7 @@
       </c>
       <c r="L92" s="52"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -6468,7 +6319,7 @@
       </c>
       <c r="L93" s="52"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -6492,7 +6343,7 @@
       </c>
       <c r="L94" s="52"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -6516,7 +6367,7 @@
       </c>
       <c r="L95" s="52"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -6540,7 +6391,7 @@
       </c>
       <c r="L96" s="52"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -6564,7 +6415,7 @@
       </c>
       <c r="L97" s="52"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -6588,7 +6439,7 @@
       </c>
       <c r="L98" s="52"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -6612,7 +6463,7 @@
       </c>
       <c r="L99" s="52"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -6636,7 +6487,7 @@
       </c>
       <c r="L100" s="52"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -6660,7 +6511,7 @@
       </c>
       <c r="L101" s="52"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -6684,7 +6535,7 @@
       </c>
       <c r="L102" s="52"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -6708,7 +6559,7 @@
       </c>
       <c r="L103" s="52"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>100</v>
       </c>
@@ -6732,7 +6583,7 @@
       </c>
       <c r="L104" s="52"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>101</v>
       </c>
@@ -6756,7 +6607,7 @@
       </c>
       <c r="L105" s="52"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>102</v>
       </c>
@@ -6780,7 +6631,7 @@
       </c>
       <c r="L106" s="52"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>103</v>
       </c>
@@ -6806,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>104</v>
       </c>
@@ -6832,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>100001</v>
       </c>
@@ -6855,7 +6706,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>100002</v>
       </c>
@@ -6887,7 +6738,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>100003</v>
       </c>
@@ -6919,7 +6770,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>100004</v>
       </c>
@@ -6951,7 +6802,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>100005</v>
       </c>
@@ -6974,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>100006</v>
       </c>
@@ -6994,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>100007</v>
       </c>
@@ -7014,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>100008</v>
       </c>
@@ -7034,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>100009</v>
       </c>
@@ -7054,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>100010</v>
       </c>
@@ -7074,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>100011</v>
       </c>
@@ -7094,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>200001</v>
       </c>
@@ -7114,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>200002</v>
       </c>
@@ -7134,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>200003</v>
       </c>
@@ -7154,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>200004</v>
       </c>
@@ -7174,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>200005</v>
       </c>
@@ -7194,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>200006</v>
       </c>
@@ -7214,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>200007</v>
       </c>
@@ -7234,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>200008</v>
       </c>
@@ -7254,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>200009</v>
       </c>
@@ -7274,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>200010</v>
       </c>
@@ -7294,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>200011</v>
       </c>
@@ -7314,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>200012</v>
       </c>
@@ -7334,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>200013</v>
       </c>
@@ -7354,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>200014</v>
       </c>
@@ -7374,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>200015</v>
       </c>
@@ -7394,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>200016</v>
       </c>
@@ -7415,26 +7266,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="AO186" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="3" ySplit="5" topLeftCell="AO57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AP193" sqref="AP193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
@@ -7475,12 +7324,12 @@
     <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7608,7 +7457,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="F3" s="1" t="s">
@@ -7660,7 +7509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="49.5" spans="1:41">
+    <row r="4" spans="1:43" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -7785,7 +7634,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" ht="255.95" customHeight="1" spans="1:43">
+    <row r="5" spans="1:43" ht="255.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>171</v>
@@ -7895,7 +7744,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -7944,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -7995,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -8047,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -8099,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -8157,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -8209,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -8261,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -8313,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="39" customFormat="1" spans="1:43">
+    <row r="14" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59">
         <v>9</v>
       </c>
@@ -8370,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="39" customFormat="1" spans="1:43">
+    <row r="15" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59">
         <v>10</v>
       </c>
@@ -8427,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8481,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -8568,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -8658,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -8745,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -8835,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -8922,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -9012,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -9064,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -9116,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -9168,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -9226,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -9278,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -9329,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="38" customFormat="1" ht="17.1" customHeight="1" spans="1:43">
+    <row r="29" spans="1:43" s="38" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="68">
         <v>24</v>
       </c>
@@ -9417,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="38" customFormat="1" spans="1:43">
+    <row r="30" spans="1:43" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="68">
         <v>25</v>
       </c>
@@ -9482,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -9533,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -9584,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -9643,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="39" customFormat="1" spans="1:43">
+    <row r="34" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="59">
         <v>29</v>
       </c>
@@ -9708,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="39" customFormat="1" spans="1:43">
+    <row r="35" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="59">
         <v>30</v>
       </c>
@@ -9764,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="39" customFormat="1" spans="1:43">
+    <row r="36" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="59">
         <v>31</v>
       </c>
@@ -9820,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -9871,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -9922,7 +9771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -9973,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -10030,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -10081,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="39" customFormat="1" spans="1:43">
+    <row r="42" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="59">
         <v>37</v>
       </c>
@@ -10143,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="39" customFormat="1" spans="1:43">
+    <row r="43" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="59">
         <v>38</v>
       </c>
@@ -10199,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="39" customFormat="1" spans="1:43">
+    <row r="44" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="59">
         <v>39</v>
       </c>
@@ -10255,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -10308,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -10361,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -10412,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43</v>
       </c>
@@ -10463,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -10516,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -10567,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -10618,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -10669,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -10720,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -10771,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -10822,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -10873,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -10924,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -10975,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -11026,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -11077,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -11128,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" s="39" customFormat="1" spans="1:43">
+    <row r="62" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="59">
         <v>57</v>
       </c>
@@ -11184,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -11235,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -11286,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -11337,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -11388,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -11439,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="39" customFormat="1" spans="1:43">
+    <row r="68" spans="1:43" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="59">
         <v>63</v>
       </c>
@@ -11495,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -11546,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -11597,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -11648,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -11699,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -11750,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -11801,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>70</v>
       </c>
@@ -11852,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>71</v>
       </c>
@@ -11903,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>72</v>
       </c>
@@ -11956,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>73</v>
       </c>
@@ -12009,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>74</v>
       </c>
@@ -12062,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>75</v>
       </c>
@@ -12113,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>76</v>
       </c>
@@ -12164,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>77</v>
       </c>
@@ -12215,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>78</v>
       </c>
@@ -12266,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>79</v>
       </c>
@@ -12317,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -12368,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>81</v>
       </c>
@@ -12419,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>82</v>
       </c>
@@ -12470,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>83</v>
       </c>
@@ -12521,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>84</v>
       </c>
@@ -12572,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>85</v>
       </c>
@@ -12623,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>86</v>
       </c>
@@ -12674,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>87</v>
       </c>
@@ -12725,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>88</v>
       </c>
@@ -12776,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>89</v>
       </c>
@@ -12827,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:43">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>90</v>
       </c>
@@ -12878,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>91</v>
       </c>
@@ -12929,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>92</v>
       </c>
@@ -12980,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>93</v>
       </c>
@@ -13031,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:43">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>94</v>
       </c>
@@ -13082,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>95</v>
       </c>
@@ -13133,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>96</v>
       </c>
@@ -13184,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>97</v>
       </c>
@@ -13235,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:43">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>98</v>
       </c>
@@ -13286,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:43">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>99</v>
       </c>
@@ -13337,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:43">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>100</v>
       </c>
@@ -13388,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:43">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>101</v>
       </c>
@@ -13439,7 +13288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:43">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>102</v>
       </c>
@@ -13490,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:43">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>103</v>
       </c>
@@ -13543,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:43">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>104</v>
       </c>
@@ -13596,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:43">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>105</v>
       </c>
@@ -13649,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:43">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>106</v>
       </c>
@@ -13702,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:43">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>107</v>
       </c>
@@ -13755,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>108</v>
       </c>
@@ -13808,7 +13657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>109</v>
       </c>
@@ -13861,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>110</v>
       </c>
@@ -13914,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>111</v>
       </c>
@@ -13967,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>118</v>
       </c>
@@ -14018,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>119</v>
       </c>
@@ -14069,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>120</v>
       </c>
@@ -14120,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>121</v>
       </c>
@@ -14171,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>122</v>
       </c>
@@ -14222,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:43">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>123</v>
       </c>
@@ -14273,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:43">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>124</v>
       </c>
@@ -14324,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:43">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>125</v>
       </c>
@@ -14375,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:43">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>126</v>
       </c>
@@ -14424,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>127</v>
       </c>
@@ -14473,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>128</v>
       </c>
@@ -14522,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>129</v>
       </c>
@@ -14571,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:43">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>130</v>
       </c>
@@ -14620,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:43">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>131</v>
       </c>
@@ -14669,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:43">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>132</v>
       </c>
@@ -14718,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:43">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>133</v>
       </c>
@@ -14767,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:43">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>134</v>
       </c>
@@ -14816,7 +14665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:43">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>135</v>
       </c>
@@ -14865,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:43">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>136</v>
       </c>
@@ -14914,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:43">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>137</v>
       </c>
@@ -14963,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:43">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>138</v>
       </c>
@@ -15012,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:43">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>139</v>
       </c>
@@ -15061,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:43">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>140</v>
       </c>
@@ -15110,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:43">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>141</v>
       </c>
@@ -15159,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:43">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>142</v>
       </c>
@@ -15208,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:43">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>143</v>
       </c>
@@ -15257,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:43">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>144</v>
       </c>
@@ -15306,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:43">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>145</v>
       </c>
@@ -15355,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:43">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>146</v>
       </c>
@@ -15404,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:43">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>147</v>
       </c>
@@ -15453,7 +15302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:43">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>148</v>
       </c>
@@ -15502,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:43">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>149</v>
       </c>
@@ -15551,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:43">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>150</v>
       </c>
@@ -15600,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:43">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>151</v>
       </c>
@@ -15649,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:43">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>152</v>
       </c>
@@ -15698,7 +15547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:43">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>153</v>
       </c>
@@ -15747,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:43">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>154</v>
       </c>
@@ -15796,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:43">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>155</v>
       </c>
@@ -15845,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:43">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>156</v>
       </c>
@@ -15894,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:43">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>157</v>
       </c>
@@ -15943,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:43">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>158</v>
       </c>
@@ -15992,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:43">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>159</v>
       </c>
@@ -16041,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:43">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>160</v>
       </c>
@@ -16090,7 +15939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:43">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>161</v>
       </c>
@@ -16139,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:43">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>162</v>
       </c>
@@ -16188,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:43">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>163</v>
       </c>
@@ -16237,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:43">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>164</v>
       </c>
@@ -16286,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:43">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>165</v>
       </c>
@@ -16335,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:43">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>166</v>
       </c>
@@ -16384,7 +16233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:43">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>167</v>
       </c>
@@ -16433,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:43">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>168</v>
       </c>
@@ -16482,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:43">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>169</v>
       </c>
@@ -16531,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:43">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>170</v>
       </c>
@@ -16580,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:43">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>171</v>
       </c>
@@ -16629,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:43">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>172</v>
       </c>
@@ -16678,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:43">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>173</v>
       </c>
@@ -16727,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:43">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>174</v>
       </c>
@@ -16776,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:43">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>175</v>
       </c>
@@ -16825,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:43">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>176</v>
       </c>
@@ -16874,7 +16723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:43">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>177</v>
       </c>
@@ -16923,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:43">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>178</v>
       </c>
@@ -16976,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:43">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>179</v>
       </c>
@@ -17029,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" s="47" customFormat="1" spans="1:43">
+    <row r="179" spans="1:43" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="47">
         <v>180</v>
       </c>
@@ -17087,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:43">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>181</v>
       </c>
@@ -17142,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:43">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>182</v>
       </c>
@@ -17201,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:43">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>183</v>
       </c>
@@ -17254,7 +17103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:43">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>184</v>
       </c>
@@ -17307,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:43">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>185</v>
       </c>
@@ -17360,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:43">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>186</v>
       </c>
@@ -17413,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:43">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>187</v>
       </c>
@@ -17466,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:43">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>188</v>
       </c>
@@ -17525,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:43">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>189</v>
       </c>
@@ -17578,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:43">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>190</v>
       </c>
@@ -17631,7 +17480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:43">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>191</v>
       </c>
@@ -17690,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:43">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>192</v>
       </c>
@@ -17743,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:43">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>193</v>
       </c>
@@ -17796,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:43">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>194</v>
       </c>
@@ -17855,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:43">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>195</v>
       </c>
@@ -17908,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:43">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>196</v>
       </c>
@@ -17961,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:43">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>197</v>
       </c>
@@ -18020,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:43">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>198</v>
       </c>
@@ -18079,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:43">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>199</v>
       </c>
@@ -18138,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:43">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>200</v>
       </c>
@@ -18191,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:43">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>201</v>
       </c>
@@ -18244,7 +18093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:43">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>202</v>
       </c>
@@ -18297,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:43">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>203</v>
       </c>
@@ -18350,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:43">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>204</v>
       </c>
@@ -18403,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:43">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>205</v>
       </c>
@@ -18456,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:43">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>206</v>
       </c>
@@ -18509,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:43">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>207</v>
       </c>
@@ -18564,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:43">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>208</v>
       </c>
@@ -18619,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:43">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>209</v>
       </c>
@@ -18674,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:43">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>210</v>
       </c>
@@ -18727,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:43">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>211</v>
       </c>
@@ -18780,7 +18629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:43">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>212</v>
       </c>
@@ -18833,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:43">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>213</v>
       </c>
@@ -18886,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:43">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>214</v>
       </c>
@@ -18939,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:43">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>215</v>
       </c>
@@ -18992,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:43">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
         <v>216</v>
       </c>
@@ -19045,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:43">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
         <v>217</v>
       </c>
@@ -19098,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:43">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>218</v>
       </c>
@@ -19151,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:43">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>219</v>
       </c>
@@ -19204,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:43">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
         <v>220</v>
       </c>
@@ -19257,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:43">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>221</v>
       </c>
@@ -19310,7 +19159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" s="1" customFormat="1" spans="1:43">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>230</v>
       </c>
@@ -19356,12 +19205,8 @@
       <c r="Q221" s="98">
         <v>5000</v>
       </c>
-      <c r="R221"/>
-      <c r="S221"/>
-      <c r="X221" s="48"/>
       <c r="AD221" s="48"/>
-      <c r="AE221" s="48"/>
-      <c r="AF221" s="48"/>
+      <c r="AG221" s="1"/>
       <c r="AO221"/>
       <c r="AP221" t="s">
         <v>253</v>
@@ -19370,7 +19215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" s="1" customFormat="1" spans="1:43">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>231</v>
       </c>
@@ -19416,12 +19261,8 @@
       <c r="Q222" s="98">
         <v>5000</v>
       </c>
-      <c r="R222"/>
-      <c r="S222"/>
-      <c r="X222" s="48"/>
       <c r="AD222" s="48"/>
-      <c r="AE222" s="48"/>
-      <c r="AF222" s="48"/>
+      <c r="AG222" s="1"/>
       <c r="AO222"/>
       <c r="AP222" t="s">
         <v>255</v>
@@ -19430,7 +19271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" s="1" customFormat="1" spans="1:43">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>232</v>
       </c>
@@ -19476,12 +19317,8 @@
       <c r="Q223" s="98">
         <v>5000</v>
       </c>
-      <c r="R223"/>
-      <c r="S223"/>
-      <c r="X223" s="48"/>
       <c r="AD223" s="48"/>
-      <c r="AE223" s="48"/>
-      <c r="AF223" s="48"/>
+      <c r="AG223" s="1"/>
       <c r="AO223"/>
       <c r="AP223" s="106" t="s">
         <v>255</v>
@@ -19490,7 +19327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" s="1" customFormat="1" spans="1:43">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>233</v>
       </c>
@@ -19536,12 +19373,8 @@
       <c r="Q224" s="98">
         <v>5000</v>
       </c>
-      <c r="R224"/>
-      <c r="S224"/>
-      <c r="X224" s="48"/>
       <c r="AD224" s="48"/>
-      <c r="AE224" s="48"/>
-      <c r="AF224" s="48"/>
+      <c r="AG224" s="1"/>
       <c r="AO224"/>
       <c r="AP224" t="s">
         <v>253</v>
@@ -19550,7 +19383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:43">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>100001</v>
       </c>
@@ -19622,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:43">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>100002</v>
       </c>
@@ -19650,7 +19483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:43">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>100003</v>
       </c>
@@ -19678,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:43">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>100004</v>
       </c>
@@ -19706,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:43">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>100005</v>
       </c>
@@ -19781,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="15.95" customHeight="1" spans="1:43">
+    <row r="230" spans="1:43" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>100006</v>
       </c>
@@ -19850,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:43">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>100007</v>
       </c>
@@ -19904,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:43">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>100008</v>
       </c>
@@ -19976,7 +19809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:43">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>100009</v>
       </c>
@@ -20045,7 +19878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:43">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>100010</v>
       </c>
@@ -20102,7 +19935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="33" spans="1:43">
+    <row r="235" spans="1:43" ht="33" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>100011</v>
       </c>
@@ -20168,7 +20001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:43">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>200001</v>
       </c>
@@ -20243,7 +20076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:43">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>200002</v>
       </c>
@@ -20306,7 +20139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:43">
+    <row r="238" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>200003</v>
       </c>
@@ -20372,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:43">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A239" s="38">
         <v>200004</v>
       </c>
@@ -20439,7 +20272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:43">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A240" s="38">
         <v>200005</v>
       </c>
@@ -20502,7 +20335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:43">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" s="38">
         <v>200006</v>
       </c>
@@ -20538,7 +20371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:43">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>200007</v>
       </c>
@@ -20614,7 +20447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:43">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>200008</v>
       </c>
@@ -20677,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:43">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>200009</v>
       </c>
@@ -20749,7 +20582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:43">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>200010</v>
       </c>
@@ -20819,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:43">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>200011</v>
       </c>
@@ -20882,7 +20715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" s="47" customFormat="1" spans="1:43">
+    <row r="247" spans="1:43" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="47">
         <v>200012</v>
       </c>
@@ -20960,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" s="47" customFormat="1" spans="1:43">
+    <row r="248" spans="1:43" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="47">
         <v>200013</v>
       </c>
@@ -21032,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" s="47" customFormat="1" spans="1:43">
+    <row r="249" spans="1:43" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="47">
         <v>200014</v>
       </c>
@@ -21102,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" s="47" customFormat="1" spans="1:43">
+    <row r="250" spans="1:43" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="47">
         <v>200015</v>
       </c>
@@ -21181,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" s="47" customFormat="1" spans="1:43">
+    <row r="251" spans="1:43" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="47">
         <v>200016</v>
       </c>
@@ -21250,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" s="47" customFormat="1" spans="1:43">
+    <row r="252" spans="1:43" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="47">
         <v>200017</v>
       </c>
@@ -21326,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:43">
+    <row r="253" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A253" s="47">
         <v>200018</v>
       </c>
@@ -21386,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:43">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>200019</v>
       </c>
@@ -21455,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:43">
+    <row r="255" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>200020</v>
       </c>
@@ -21509,7 +21342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:43">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>200021</v>
       </c>
@@ -21563,7 +21396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:43">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>200022</v>
       </c>
@@ -21639,179 +21472,175 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AO257">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:AO257"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsBlanks" dxfId="0" priority="25">
+    <cfRule type="containsBlanks" dxfId="49" priority="25">
       <formula>LEN(TRIM(M17))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsBlanks" dxfId="0" priority="37">
+    <cfRule type="containsBlanks" dxfId="47" priority="37">
       <formula>LEN(TRIM(M19))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="containsBlanks" dxfId="0" priority="23">
+    <cfRule type="containsBlanks" dxfId="45" priority="23">
       <formula>LEN(TRIM(M20))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="duplicateValues" dxfId="42" priority="5"/>
+    <cfRule type="containsBlanks" dxfId="41" priority="4">
       <formula>LEN(TRIM(M21))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="duplicateValues" dxfId="40" priority="3"/>
+    <cfRule type="containsBlanks" dxfId="39" priority="2">
       <formula>LEN(TRIM(M22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="containsBlanks" dxfId="0" priority="33">
+    <cfRule type="containsBlanks" dxfId="38" priority="33">
       <formula>LEN(TRIM(M23))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="containsBlanks" dxfId="0" priority="41">
+    <cfRule type="containsBlanks" dxfId="36" priority="41">
       <formula>LEN(TRIM(M25))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="containsBlanks" dxfId="0" priority="39">
+    <cfRule type="containsBlanks" dxfId="34" priority="39">
       <formula>LEN(TRIM(M26))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="containsBlanks" dxfId="0" priority="29">
+    <cfRule type="containsBlanks" dxfId="32" priority="29">
       <formula>LEN(TRIM(M27))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="containsBlanks" dxfId="0" priority="31">
+    <cfRule type="containsBlanks" dxfId="30" priority="31">
       <formula>LEN(TRIM(M28))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="containsBlanks" dxfId="0" priority="13">
+    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
+    <cfRule type="containsBlanks" dxfId="27" priority="13">
       <formula>LEN(TRIM(M29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30">
-    <cfRule type="containsBlanks" dxfId="0" priority="21">
+    <cfRule type="containsBlanks" dxfId="26" priority="21">
       <formula>LEN(TRIM(M30))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C224">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F8">
-    <cfRule type="containsBlanks" dxfId="0" priority="51">
+    <cfRule type="containsBlanks" dxfId="23" priority="51">
       <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F14">
-    <cfRule type="containsBlanks" dxfId="0" priority="49">
+    <cfRule type="containsBlanks" dxfId="21" priority="49">
       <formula>LEN(TRIM(F9))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F24">
-    <cfRule type="containsBlanks" dxfId="0" priority="47">
+    <cfRule type="containsBlanks" dxfId="19" priority="47">
       <formula>LEN(TRIM(F15))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25:F28">
-    <cfRule type="containsBlanks" dxfId="0" priority="43">
+    <cfRule type="containsBlanks" dxfId="17" priority="43">
       <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F30">
-    <cfRule type="containsBlanks" dxfId="0" priority="27">
+    <cfRule type="containsBlanks" dxfId="15" priority="27">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F34">
-    <cfRule type="containsBlanks" dxfId="0" priority="19">
+    <cfRule type="containsBlanks" dxfId="13" priority="19">
       <formula>LEN(TRIM(F31))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F37">
-    <cfRule type="containsBlanks" dxfId="0" priority="17">
+    <cfRule type="containsBlanks" dxfId="11" priority="17">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsBlanks" dxfId="0" priority="15">
+    <cfRule type="containsBlanks" dxfId="9" priority="15">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F244:F246">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247:F248">
-    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F249:F253">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F254:F257">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C16 C23:C115">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C20 C22">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18 M24">
-    <cfRule type="containsBlanks" dxfId="0" priority="45">
+    <cfRule type="containsBlanks" dxfId="1" priority="45">
       <formula>LEN(TRIM(M18))=0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="9" ySplit="5" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
@@ -21831,12 +21660,12 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -21879,7 +21708,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -21891,7 +21720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="82.5" spans="1:17">
+    <row r="4" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -21942,7 +21771,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" ht="82.5" spans="1:17">
+    <row r="5" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>472</v>
@@ -21983,7 +21812,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" ht="99" spans="1:15">
+    <row r="6" spans="1:17" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -22011,7 +21840,7 @@
       </c>
       <c r="O6" s="37"/>
     </row>
-    <row r="7" ht="33" spans="1:15">
+    <row r="7" spans="1:17" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -22034,7 +21863,7 @@
       </c>
       <c r="O7" s="37"/>
     </row>
-    <row r="8" ht="82.5" spans="1:15">
+    <row r="8" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -22058,7 +21887,7 @@
       </c>
       <c r="O8" s="37"/>
     </row>
-    <row r="9" ht="33" spans="1:15">
+    <row r="9" spans="1:17" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -22081,7 +21910,7 @@
       </c>
       <c r="O9" s="37"/>
     </row>
-    <row r="10" ht="82.5" spans="1:15">
+    <row r="10" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -22109,7 +21938,7 @@
       </c>
       <c r="O10" s="37"/>
     </row>
-    <row r="11" ht="82.5" spans="1:11">
+    <row r="11" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -22128,7 +21957,7 @@
         <v>100003</v>
       </c>
     </row>
-    <row r="12" ht="297" spans="1:14">
+    <row r="12" spans="1:17" ht="297" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -22155,7 +21984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -22180,7 +22009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -22208,7 +22037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -22234,7 +22063,7 @@
       </c>
       <c r="O15" s="37"/>
     </row>
-    <row r="16" ht="82.5" spans="1:16">
+    <row r="16" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -22267,7 +22096,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" ht="82.5" spans="1:15">
+    <row r="17" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -22294,7 +22123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="247.5" spans="1:14">
+    <row r="18" spans="1:16" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -22318,7 +22147,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -22337,7 +22166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="198" spans="1:14">
+    <row r="20" spans="1:16" ht="198" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -22364,7 +22193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -22383,7 +22212,7 @@
         <v>100004</v>
       </c>
     </row>
-    <row r="22" ht="49.5" spans="1:14">
+    <row r="22" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -22410,7 +22239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="33" spans="1:14">
+    <row r="23" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -22437,7 +22266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="99" spans="1:14">
+    <row r="24" spans="1:16" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -22462,7 +22291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="66" spans="1:16">
+    <row r="25" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -22492,7 +22321,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" ht="33" spans="1:14">
+    <row r="26" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -22511,7 +22340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="49.5" spans="1:14">
+    <row r="27" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -22538,7 +22367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="49.5" spans="1:14">
+    <row r="28" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -22563,7 +22392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="49.5" spans="1:16">
+    <row r="29" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -22583,7 +22412,7 @@
       </c>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" ht="132" spans="1:16">
+    <row r="30" spans="1:16" ht="132" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -22611,7 +22440,7 @@
       </c>
       <c r="P30" s="38"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -22636,7 +22465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -22664,7 +22493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" ht="49.5" spans="1:14">
+    <row r="33" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22692,7 +22521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="1:14">
+    <row r="34" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -22719,7 +22548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="129" spans="1:8">
+    <row r="35" spans="1:16" ht="129.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -22737,7 +22566,7 @@
       </c>
       <c r="H35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -22763,7 +22592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -22792,7 +22621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -22815,7 +22644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="49.5" spans="1:14">
+    <row r="39" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -22845,7 +22674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="129" spans="1:14">
+    <row r="40" spans="1:16" ht="129.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -22872,7 +22701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -22886,7 +22715,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="42" ht="30" spans="1:16">
+    <row r="42" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -22920,7 +22749,7 @@
       </c>
       <c r="P42" s="39"/>
     </row>
-    <row r="43" ht="33" spans="1:16">
+    <row r="43" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -22947,7 +22776,7 @@
       </c>
       <c r="P43" s="39"/>
     </row>
-    <row r="44" ht="82.5" spans="1:16">
+    <row r="44" spans="1:16" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -22978,7 +22807,7 @@
       </c>
       <c r="P44" s="39"/>
     </row>
-    <row r="45" ht="64.5" spans="1:11">
+    <row r="45" spans="1:16" ht="64.5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -23000,7 +22829,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" ht="78" spans="1:14">
+    <row r="46" spans="1:16" ht="78" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -23034,7 +22863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="30" spans="1:14">
+    <row r="47" spans="1:16" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -23057,7 +22886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="49.5" spans="1:14">
+    <row r="48" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>43</v>
       </c>
@@ -23075,7 +22904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="60" spans="1:14">
+    <row r="49" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -23096,7 +22925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="82.5" spans="1:14">
+    <row r="50" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -23126,7 +22955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -23140,7 +22969,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -23154,7 +22983,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="53" ht="99" spans="1:14">
+    <row r="53" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -23187,7 +23016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -23201,7 +23030,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" ht="49.5" spans="1:14">
+    <row r="55" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -23234,7 +23063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -23248,7 +23077,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -23281,7 +23110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -23295,7 +23124,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="59" ht="49.5" spans="1:14">
+    <row r="59" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -23325,7 +23154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -23339,7 +23168,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -23353,7 +23182,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>57</v>
       </c>
@@ -23367,7 +23196,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="63" ht="148.5" spans="1:14">
+    <row r="63" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -23397,7 +23226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -23411,7 +23240,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -23425,7 +23254,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="66" ht="82.5" spans="1:14">
+    <row r="66" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -23458,7 +23287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" ht="33" spans="1:4">
+    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -23472,7 +23301,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" ht="82.5" spans="1:14">
+    <row r="68" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>63</v>
       </c>
@@ -23502,7 +23331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -23516,7 +23345,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -23530,7 +23359,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -23544,7 +23373,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -23558,7 +23387,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="73" ht="33" spans="1:14">
+    <row r="73" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -23591,7 +23420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -23605,7 +23434,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>70</v>
       </c>
@@ -23619,7 +23448,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>71</v>
       </c>
@@ -23633,7 +23462,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="77" ht="66" spans="1:14">
+    <row r="77" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>72</v>
       </c>
@@ -23666,7 +23495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="60" spans="1:14">
+    <row r="78" spans="1:14" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>73</v>
       </c>
@@ -23689,7 +23518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="66" customHeight="1" spans="1:14">
+    <row r="79" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>74</v>
       </c>
@@ -23715,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="132" spans="1:14">
+    <row r="80" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>75</v>
       </c>
@@ -23751,7 +23580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>76</v>
       </c>
@@ -23771,7 +23600,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="82" ht="82.5" spans="1:14">
+    <row r="82" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>77</v>
       </c>
@@ -23801,7 +23630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>78</v>
       </c>
@@ -23815,7 +23644,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>79</v>
       </c>
@@ -23841,7 +23670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -23867,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>81</v>
       </c>
@@ -23890,7 +23719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="49.5" spans="1:14">
+    <row r="87" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>82</v>
       </c>
@@ -23907,7 +23736,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>83</v>
       </c>
@@ -23924,7 +23753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" ht="33" spans="1:14">
+    <row r="89" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>84</v>
       </c>
@@ -23945,7 +23774,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>85</v>
       </c>
@@ -23962,7 +23791,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="91" ht="33" spans="1:14">
+    <row r="91" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>86</v>
       </c>
@@ -23979,7 +23808,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>87</v>
       </c>
@@ -23993,7 +23822,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>88</v>
       </c>
@@ -24007,7 +23836,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="94" ht="49.5" spans="1:14">
+    <row r="94" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>89</v>
       </c>
@@ -24040,7 +23869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>90</v>
       </c>
@@ -24054,7 +23883,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="96" ht="82.5" spans="1:14">
+    <row r="96" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>91</v>
       </c>
@@ -24086,7 +23915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>92</v>
       </c>
@@ -24100,7 +23929,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>93</v>
       </c>
@@ -24114,7 +23943,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>94</v>
       </c>
@@ -24128,7 +23957,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="100" ht="99" spans="1:14">
+    <row r="100" spans="1:14" ht="99" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>95</v>
       </c>
@@ -24161,7 +23990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>96</v>
       </c>
@@ -24175,7 +24004,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="102" ht="280.5" spans="1:14">
+    <row r="102" spans="1:14" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>97</v>
       </c>
@@ -24207,7 +24036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>98</v>
       </c>
@@ -24221,7 +24050,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>99</v>
       </c>
@@ -24235,7 +24064,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>100</v>
       </c>
@@ -24249,7 +24078,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" ht="49.5" spans="1:14">
+    <row r="106" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>101</v>
       </c>
@@ -24282,7 +24111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>102</v>
       </c>
@@ -24296,7 +24125,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>103</v>
       </c>
@@ -24310,7 +24139,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="109" ht="33" spans="1:4">
+    <row r="109" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>104</v>
       </c>
@@ -24324,7 +24153,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>105</v>
       </c>
@@ -24338,7 +24167,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="111" ht="409.5" spans="1:4">
+    <row r="111" spans="1:14" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>106</v>
       </c>
@@ -24352,7 +24181,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>107</v>
       </c>
@@ -24366,7 +24195,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="113" ht="49.5" spans="1:14">
+    <row r="113" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>108</v>
       </c>
@@ -24399,7 +24228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>109</v>
       </c>
@@ -24413,7 +24242,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>110</v>
       </c>
@@ -24427,7 +24256,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="116" ht="148.5" spans="1:14">
+    <row r="116" spans="1:14" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>111</v>
       </c>
@@ -24459,7 +24288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>112</v>
       </c>
@@ -24473,7 +24302,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>113</v>
       </c>
@@ -24487,7 +24316,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>114</v>
       </c>
@@ -24501,7 +24330,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="120" ht="33" spans="1:14">
+    <row r="120" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>115</v>
       </c>
@@ -24521,7 +24350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>116</v>
       </c>
@@ -24535,7 +24364,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>117</v>
       </c>
@@ -24549,7 +24378,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>118</v>
       </c>
@@ -24563,7 +24392,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>119</v>
       </c>
@@ -24577,7 +24406,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>120</v>
       </c>
@@ -24591,7 +24420,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>121</v>
       </c>
@@ -24606,21 +24435,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A1048515" workbookViewId="0">
       <selection activeCell="D1048548" sqref="D1048548"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -24629,12 +24457,12 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -24648,14 +24476,14 @@
         <v>688</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -24663,7 +24491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>689</v>
@@ -24675,7 +24503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -24687,7 +24515,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>